--- a/MATLAB Codes/Opponent/OpponentResults.xlsx
+++ b/MATLAB Codes/Opponent/OpponentResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilmar Jeronimo\Desktop\Testes MATLAB\MATLAB Codes\Opponent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilmar Jeronimo\Documents\Documentos\Projetos\GitHub\LAB GIT\OpenNNCV\MATLAB Codes\Opponent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3B7DD-49DB-409F-B0BC-3785FFC0C106}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C878BFE-9D36-4DD3-8074-2A2C8AD3F76F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{791884E5-62DD-4D96-B9E2-DFC9E84D4A48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{791884E5-62DD-4D96-B9E2-DFC9E84D4A48}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -91,70 +91,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -528,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FE6F51-6CD3-4002-90BB-394698E69EFC}">
-  <dimension ref="A1:BM30"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3145,7 +3082,7 @@
         <v>1.8824999999999821</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:BP28" si="1">SUM(E3,F3)</f>
+        <f t="shared" ref="E17:BL17" si="1">SUM(E3,F3)</f>
         <v>1.8749999999999818</v>
       </c>
       <c r="F17">
@@ -3394,7 +3331,7 @@
         <v>0.91222222222221361</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BN21" si="3">SUM(C4,D4)</f>
+        <f t="shared" ref="C18:BL21" si="3">SUM(C4,D4)</f>
         <v>1.9174999999999809</v>
       </c>
       <c r="D18">
@@ -4422,7 +4359,7 @@
         <v>0.92511904761903896</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:BN25" si="4">SUM(C8,D8)</f>
+        <f t="shared" ref="C22:BL25" si="4">SUM(C8,D8)</f>
         <v>1.9449999999999812</v>
       </c>
       <c r="D22">
@@ -5450,7 +5387,7 @@
         <v>0.91970238095237233</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:BN28" si="5">SUM(C12,D12)</f>
+        <f t="shared" ref="C26:BL28" si="5">SUM(C12,D12)</f>
         <v>1.92999999999998</v>
       </c>
       <c r="D26">
@@ -6265,12 +6202,62 @@
         <v>1.8552579365079183</v>
       </c>
     </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("(",A17,",",B17,")")</f>
+        <v>(1,0.909781746031737)</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT("(",A18,",",B18,")")</f>
+        <v>(2,0.912222222222214)</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT("(",A19,",",B19,")")</f>
+        <v>(3,0.923194444444435)</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT("(",A20,",",B20,")")</f>
+        <v>(4,0.924464285714277)</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.CONCAT("(",A21,",",B21,")")</f>
+        <v>(5,0.927242063492054)</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT("(",A22,",",B22,")")</f>
+        <v>(6,0.925119047619039)</v>
+      </c>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT("(",A23,",",B23,")")</f>
+        <v>(7,0.928253968253959)</v>
+      </c>
+      <c r="I32" t="str">
+        <f>_xlfn.CONCAT("(",A24,",",B24,")")</f>
+        <v>(8,0.925039682539674)</v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT("(",A25,",",B25,")")</f>
+        <v>(9,0.927678571428562)</v>
+      </c>
+      <c r="K32" t="str">
+        <f>_xlfn.CONCAT("(",A26,",",B26,")")</f>
+        <v>(10,0.919702380952372)</v>
+      </c>
+      <c r="L32" t="str">
+        <f>_xlfn.CONCAT("(",A27,",",B27,")")</f>
+        <v>(11,0.927936507936499)</v>
+      </c>
+      <c r="M32" t="str">
+        <f>_xlfn.CONCAT("(",A28,",",B28,")")</f>
+        <v>(12,0.92732142857142)</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B14">
-    <cfRule type="top10" dxfId="17" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B28">
-    <cfRule type="top10" dxfId="16" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6278,10 +6265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA140F6-1723-41D6-B79F-2B74A5310FAB}">
-  <dimension ref="A1:BM30"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8896,7 +8883,7 @@
         <v>1.8724999999999821</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:BP17" si="1">SUM(E3,F3)</f>
+        <f t="shared" ref="E17:BL17" si="1">SUM(E3,F3)</f>
         <v>1.867499999999982</v>
       </c>
       <c r="F17">
@@ -9145,7 +9132,7 @@
         <v>0.90835317460316611</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BN22" si="3">SUM(C4,D4)</f>
+        <f t="shared" ref="C18:BL22" si="3">SUM(C4,D4)</f>
         <v>1.9099999999999819</v>
       </c>
       <c r="D18">
@@ -10201,7 +10188,7 @@
         <v>1.9399999999999809</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:BU22" si="4">SUM(J8,K8)</f>
+        <f t="shared" ref="J22:BL22" si="4">SUM(J8,K8)</f>
         <v>1.9199999999999808</v>
       </c>
       <c r="K22">
@@ -10430,7 +10417,7 @@
         <v>0.92958333333332455</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:BN27" si="5">SUM(C9,D9)</f>
+        <f t="shared" ref="C23:BL27" si="5">SUM(C9,D9)</f>
         <v>1.9549999999999801</v>
       </c>
       <c r="D23">
@@ -11486,7 +11473,7 @@
         <v>1.9149999999999809</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27:BU27" si="6">SUM(J13,K13)</f>
+        <f t="shared" ref="J27:BL27" si="6">SUM(J13,K13)</f>
         <v>1.902499999999981</v>
       </c>
       <c r="K27">
@@ -11715,7 +11702,7 @@
         <v>0.92930555555554661</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:BN28" si="7">SUM(C14,D14)</f>
+        <f t="shared" ref="C28:BL28" si="7">SUM(C14,D14)</f>
         <v>1.94999999999998</v>
       </c>
       <c r="D28">
@@ -12016,15 +12003,65 @@
         <v>1.8576984126983951</v>
       </c>
     </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("(",A17,",",B17,")")</f>
+        <v>(1,0.908789682539674)</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT("(",A18,",",B18,")")</f>
+        <v>(2,0.908353174603166)</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT("(",A19,",",B19,")")</f>
+        <v>(3,0.925079365079357)</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT("(",A20,",",B20,")")</f>
+        <v>(4,0.92357142857142)</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.CONCAT("(",A21,",",B21,")")</f>
+        <v>(5,0.925654761904753)</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT("(",A22,",",B22,")")</f>
+        <v>(6,0.927658730158721)</v>
+      </c>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT("(",A23,",",B23,")")</f>
+        <v>(7,0.929583333333325)</v>
+      </c>
+      <c r="I32" t="str">
+        <f>_xlfn.CONCAT("(",A24,",",B24,")")</f>
+        <v>(8,0.925496031746023)</v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT("(",A25,",",B25,")")</f>
+        <v>(9,0.923809523809515)</v>
+      </c>
+      <c r="K32" t="str">
+        <f>_xlfn.CONCAT("(",A26,",",B26,")")</f>
+        <v>(10,0.930218253968245)</v>
+      </c>
+      <c r="L32" t="str">
+        <f>_xlfn.CONCAT("(",A27,",",B27,")")</f>
+        <v>(11,0.928392857142848)</v>
+      </c>
+      <c r="M32" t="str">
+        <f>_xlfn.CONCAT("(",A28,",",B28,")")</f>
+        <v>(12,0.929305555555547)</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B14">
-    <cfRule type="top10" dxfId="14" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B28">
-    <cfRule type="top10" dxfId="11" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="top10" dxfId="10" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -12032,10 +12069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E96817-6CCA-415B-AFB3-89D89E04A846}">
-  <dimension ref="A1:BM30"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B32" sqref="B32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14640,7 +14677,7 @@
         <v>1.837499999999983</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:BP17" si="1">SUM(E3,F3)</f>
+        <f t="shared" ref="E17:BL17" si="1">SUM(E3,F3)</f>
         <v>1.8249999999999829</v>
       </c>
       <c r="F17">
@@ -14889,7 +14926,7 @@
         <v>0.89692460317459533</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BN22" si="3">SUM(C4,D4)</f>
+        <f t="shared" ref="C18:BL22" si="3">SUM(C4,D4)</f>
         <v>1.8824999999999821</v>
       </c>
       <c r="D18">
@@ -15945,7 +15982,7 @@
         <v>1.887499999999982</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:BU22" si="4">SUM(J8,K8)</f>
+        <f t="shared" ref="J22:BL22" si="4">SUM(J8,K8)</f>
         <v>1.8674999999999828</v>
       </c>
       <c r="K22">
@@ -16174,7 +16211,7 @@
         <v>0.90980158730157901</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:BN27" si="5">SUM(C9,D9)</f>
+        <f t="shared" ref="C23:BL27" si="5">SUM(C9,D9)</f>
         <v>1.9149999999999818</v>
       </c>
       <c r="D23">
@@ -17230,7 +17267,7 @@
         <v>1.899999999999981</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27:BU27" si="6">SUM(J13,K13)</f>
+        <f t="shared" ref="J27:BL27" si="6">SUM(J13,K13)</f>
         <v>1.899999999999981</v>
       </c>
       <c r="K27">
@@ -17459,7 +17496,7 @@
         <v>0.90486111111110246</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:BN28" si="7">SUM(C14,D14)</f>
+        <f t="shared" ref="C28:BL28" si="7">SUM(C14,D14)</f>
         <v>1.8824999999999821</v>
       </c>
       <c r="D28">
@@ -17760,12 +17797,62 @@
         <v>1.8211904761904592</v>
       </c>
     </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("(",A17,",",B17,")")</f>
+        <v>(1,0.87152777777777)</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT("(",A18,",",B18,")")</f>
+        <v>(2,0.896924603174595)</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT("(",A19,",",B19,")")</f>
+        <v>(3,0.896944444444437)</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT("(",A20,",",B20,")")</f>
+        <v>(4,0.894384920634912)</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.CONCAT("(",A21,",",B21,")")</f>
+        <v>(5,0.897678571428563)</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT("(",A22,",",B22,")")</f>
+        <v>(6,0.906944444444436)</v>
+      </c>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT("(",A23,",",B23,")")</f>
+        <v>(7,0.909801587301579)</v>
+      </c>
+      <c r="I32" t="str">
+        <f>_xlfn.CONCAT("(",A24,",",B24,")")</f>
+        <v>(8,0.90982142857142)</v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT("(",A25,",",B25,")")</f>
+        <v>(9,0.909246031746023)</v>
+      </c>
+      <c r="K32" t="str">
+        <f>_xlfn.CONCAT("(",A26,",",B26,")")</f>
+        <v>(10,0.90841269841269)</v>
+      </c>
+      <c r="L32" t="str">
+        <f>_xlfn.CONCAT("(",A27,",",B27,")")</f>
+        <v>(11,0.916329365079357)</v>
+      </c>
+      <c r="M32" t="str">
+        <f>_xlfn.CONCAT("(",A28,",",B28,")")</f>
+        <v>(12,0.904861111111102)</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B14">
-    <cfRule type="top10" dxfId="13" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B28">
-    <cfRule type="top10" dxfId="9" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -17773,10 +17860,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07F3C9C-40D6-4237-84DF-7ED689EDBE53}">
-  <dimension ref="A1:BM30"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20387,7 +20474,7 @@
         <v>1.6449999999999871</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:BP17" si="1">SUM(E3,F3)</f>
+        <f t="shared" ref="E17:BL17" si="1">SUM(E3,F3)</f>
         <v>1.662499999999987</v>
       </c>
       <c r="F17">
@@ -20636,7 +20723,7 @@
         <v>0.80823412698412067</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BN22" si="3">SUM(C4,D4)</f>
+        <f t="shared" ref="C18:BL22" si="3">SUM(C4,D4)</f>
         <v>1.752499999999984</v>
       </c>
       <c r="D18">
@@ -21692,7 +21779,7 @@
         <v>1.767499999999985</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:BU22" si="4">SUM(J8,K8)</f>
+        <f t="shared" ref="J22:BL22" si="4">SUM(J8,K8)</f>
         <v>1.859999999999983</v>
       </c>
       <c r="K22">
@@ -21921,7 +22008,7 @@
         <v>0.82289682539681863</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:BN27" si="5">SUM(C9,D9)</f>
+        <f t="shared" ref="C23:BL27" si="5">SUM(C9,D9)</f>
         <v>1.7649999999999839</v>
       </c>
       <c r="D23">
@@ -22977,7 +23064,7 @@
         <v>1.7999999999999829</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27:BU27" si="6">SUM(J13,K13)</f>
+        <f t="shared" ref="J27:BL27" si="6">SUM(J13,K13)</f>
         <v>1.8949999999999809</v>
       </c>
       <c r="K27">
@@ -23206,7 +23293,7 @@
         <v>0.8328174603174533</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:BN28" si="7">SUM(C14,D14)</f>
+        <f t="shared" ref="C28:BL28" si="7">SUM(C14,D14)</f>
         <v>1.7974999999999839</v>
       </c>
       <c r="D28">
@@ -23507,12 +23594,62 @@
         <v>1.6606944444444309</v>
       </c>
     </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("(",A17,",",B17,")")</f>
+        <v>(1,0.787738095238089)</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT("(",A18,",",B18,")")</f>
+        <v>(2,0.808234126984121)</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT("(",A19,",",B19,")")</f>
+        <v>(3,0.812996031746025)</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT("(",A20,",",B20,")")</f>
+        <v>(4,0.802817460317454)</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.CONCAT("(",A21,",",B21,")")</f>
+        <v>(5,0.822559523809517)</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT("(",A22,",",B22,")")</f>
+        <v>(6,0.819960317460311)</v>
+      </c>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT("(",A23,",",B23,")")</f>
+        <v>(7,0.822896825396819)</v>
+      </c>
+      <c r="I32" t="str">
+        <f>_xlfn.CONCAT("(",A24,",",B24,")")</f>
+        <v>(8,0.82698412698412)</v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT("(",A25,",",B25,")")</f>
+        <v>(9,0.81900793650793)</v>
+      </c>
+      <c r="K32" t="str">
+        <f>_xlfn.CONCAT("(",A26,",",B26,")")</f>
+        <v>(10,0.833789682539676)</v>
+      </c>
+      <c r="L32" t="str">
+        <f>_xlfn.CONCAT("(",A27,",",B27,")")</f>
+        <v>(11,0.827876984126978)</v>
+      </c>
+      <c r="M32" t="str">
+        <f>_xlfn.CONCAT("(",A28,",",B28,")")</f>
+        <v>(12,0.832817460317453)</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B14">
-    <cfRule type="top10" dxfId="12" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B28">
-    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
